--- a/REVER_DailyTracker_20200908.xlsx
+++ b/REVER_DailyTracker_20200908.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\September\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7231D0-3459-494E-ABD0-77B93AA552CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3F8082-F188-49AA-8DD2-47615EDD230E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1152" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -29,18 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="157">
   <si>
     <t>Task</t>
   </si>
@@ -539,6 +533,24 @@
   </si>
   <si>
     <t>Date search is fixed at warranty task and tested and it is success</t>
+  </si>
+  <si>
+    <t>VASTU</t>
+  </si>
+  <si>
+    <t>Testing Issues Fix</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>MrMax Testing and fixing Issue</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>SAW Discount issue looking</t>
   </si>
 </sst>
 </file>
@@ -548,7 +560,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +581,28 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -647,10 +681,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -692,9 +729,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{C4421E61-F9B3-46D0-8A71-38C00BC00A00}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1009,22 +1054,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+    <sheetView topLeftCell="A298" workbookViewId="0">
       <selection activeCell="G316" sqref="G316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1090,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -1055,8 +1100,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -1079,10 +1124,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -1096,9 +1141,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1112,9 +1157,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1128,8 +1173,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -1146,19 +1191,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -1176,13 +1221,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -1210,7 +1255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -1226,12 +1271,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -1239,7 +1284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1250,7 +1295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1261,7 +1306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -1272,12 +1317,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1299,12 +1344,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1312,7 +1357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1320,7 +1365,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1328,7 +1373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1336,12 +1381,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1349,7 +1394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1357,7 +1402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1365,7 +1410,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1373,12 +1418,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1431,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1394,7 +1439,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1447,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1410,7 +1455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1418,12 +1463,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1431,7 +1476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1439,7 +1484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1447,7 +1492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1455,7 +1500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1463,12 +1508,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:7" ht="30">
       <c r="D126" t="s">
         <v>30</v>
       </c>
@@ -1476,7 +1521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="129" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:7" ht="30">
       <c r="D129" t="s">
         <v>30</v>
       </c>
@@ -1484,7 +1529,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:7">
       <c r="D132" t="s">
         <v>30</v>
       </c>
@@ -1492,7 +1537,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:7" ht="45">
       <c r="D135" t="s">
         <v>30</v>
       </c>
@@ -1500,7 +1545,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="139" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:7" ht="60">
       <c r="D139" t="s">
         <v>30</v>
       </c>
@@ -1508,7 +1553,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:7" ht="75">
       <c r="D143" t="s">
         <v>30</v>
       </c>
@@ -1516,7 +1561,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:7">
       <c r="D146" t="s">
         <v>30</v>
       </c>
@@ -1524,12 +1569,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:7">
       <c r="G147" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:7" ht="45">
       <c r="D150" t="s">
         <v>30</v>
       </c>
@@ -1537,7 +1582,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:7">
       <c r="D154" t="s">
         <v>30</v>
       </c>
@@ -1545,12 +1590,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:7">
       <c r="G155" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:7">
       <c r="D158" t="s">
         <v>30</v>
       </c>
@@ -1558,22 +1603,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:7">
       <c r="G159" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:7">
       <c r="G160" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:7">
       <c r="G161" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:7">
       <c r="D164" t="s">
         <v>30</v>
       </c>
@@ -1581,7 +1626,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="168" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:7" ht="30">
       <c r="D168" t="s">
         <v>30</v>
       </c>
@@ -1589,7 +1634,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:7">
       <c r="D173" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:7">
       <c r="D177" t="s">
         <v>30</v>
       </c>
@@ -1605,12 +1650,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:7">
       <c r="G178" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:7" ht="45">
       <c r="D181" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:7">
       <c r="D184" t="s">
         <v>30</v>
       </c>
@@ -1626,7 +1671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:7">
       <c r="D186" t="s">
         <v>85</v>
       </c>
@@ -1634,17 +1679,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:7">
       <c r="G187" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:7">
       <c r="G188" s="23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:7">
       <c r="D190" t="s">
         <v>85</v>
       </c>
@@ -1652,7 +1697,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:7">
       <c r="D193" t="s">
         <v>85</v>
       </c>
@@ -1660,17 +1705,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:7">
       <c r="G194" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:7">
       <c r="D196" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:7">
       <c r="D199" t="s">
         <v>85</v>
       </c>
@@ -1678,12 +1723,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:7">
       <c r="G200" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:7">
       <c r="D203" t="s">
         <v>85</v>
       </c>
@@ -1691,27 +1736,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:7">
       <c r="G204" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:7">
       <c r="D207" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:7">
       <c r="G208" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:7">
       <c r="G209" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:7">
       <c r="D211" t="s">
         <v>85</v>
       </c>
@@ -1719,12 +1764,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:7">
       <c r="G212" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="216" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:7" ht="60">
       <c r="D216" t="s">
         <v>85</v>
       </c>
@@ -1732,7 +1777,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:7">
       <c r="D220" t="s">
         <v>85</v>
       </c>
@@ -1740,12 +1785,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:7">
       <c r="G221" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:7">
       <c r="D225" t="s">
         <v>85</v>
       </c>
@@ -1753,7 +1798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:7">
       <c r="D228" t="s">
         <v>85</v>
       </c>
@@ -1761,12 +1806,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:7">
       <c r="G229" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:7">
       <c r="D231" t="s">
         <v>105</v>
       </c>
@@ -1774,7 +1819,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:7">
       <c r="D234" t="s">
         <v>107</v>
       </c>
@@ -1782,7 +1827,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:7">
       <c r="D236" t="s">
         <v>108</v>
       </c>
@@ -1790,17 +1835,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:7">
       <c r="G237" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:7">
       <c r="G238" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:7">
       <c r="D241" t="s">
         <v>105</v>
       </c>
@@ -1808,12 +1853,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:7">
       <c r="G242" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:7">
       <c r="D245" t="s">
         <v>108</v>
       </c>
@@ -1821,7 +1866,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:7">
       <c r="D248" t="s">
         <v>108</v>
       </c>
@@ -1829,12 +1874,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:7">
       <c r="G249" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:7">
       <c r="D252" t="s">
         <v>108</v>
       </c>
@@ -1842,17 +1887,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:7">
       <c r="G253" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:7">
       <c r="G254" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:7">
       <c r="D257" t="s">
         <v>121</v>
       </c>
@@ -1860,7 +1905,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:7">
       <c r="D260" t="s">
         <v>108</v>
       </c>
@@ -1868,12 +1913,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:7">
       <c r="G261" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:7">
       <c r="D264" t="s">
         <v>108</v>
       </c>
@@ -1881,7 +1926,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:7">
       <c r="D267" t="s">
         <v>108</v>
       </c>
@@ -1889,7 +1934,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:7">
       <c r="D271" t="s">
         <v>108</v>
       </c>
@@ -1897,7 +1942,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:7">
       <c r="D275" t="s">
         <v>108</v>
       </c>
@@ -1905,12 +1950,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:7">
       <c r="G276" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:7">
       <c r="D280" t="s">
         <v>108</v>
       </c>
@@ -1918,12 +1963,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:7">
       <c r="G281" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:7">
       <c r="D283" t="s">
         <v>108</v>
       </c>
@@ -1931,12 +1976,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:7">
       <c r="G284" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:7">
       <c r="D288" t="s">
         <v>108</v>
       </c>
@@ -1944,12 +1989,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:7">
       <c r="G289" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="292" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:7" ht="45">
       <c r="D292" t="s">
         <v>108</v>
       </c>
@@ -1957,7 +2002,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:7">
       <c r="D295" t="s">
         <v>107</v>
       </c>
@@ -1965,17 +2010,17 @@
         <v>137</v>
       </c>
     </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:7">
       <c r="G296" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:7">
       <c r="G297" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:7">
       <c r="D300" t="s">
         <v>140</v>
       </c>
@@ -1983,7 +2028,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:7">
       <c r="D302" t="s">
         <v>108</v>
       </c>
@@ -1991,7 +2036,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:7">
       <c r="D304" t="s">
         <v>108</v>
       </c>
@@ -1999,7 +2044,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="307" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:7">
       <c r="D307" t="s">
         <v>108</v>
       </c>
@@ -2007,12 +2052,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="308" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:7">
       <c r="G308" s="24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="310" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:7">
       <c r="D310" t="s">
         <v>108</v>
       </c>
@@ -2020,7 +2065,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="313" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:7">
       <c r="D313" t="s">
         <v>108</v>
       </c>
@@ -2028,12 +2073,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="314" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:7">
       <c r="G314" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="316" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:7">
       <c r="D316" t="s">
         <v>149</v>
       </c>
@@ -2056,18 +2101,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2099,7 +2144,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2108,46 +2153,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2164,22 +2209,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2202,64 +2247,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25">
+        <v>44082</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>152</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44082</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>154</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25">
+        <v>44082</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2280,18 +2357,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2314,7 +2391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2323,7 +2400,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2332,46 +2409,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2392,18 +2469,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2435,7 +2512,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2444,46 +2521,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2504,18 +2581,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2538,7 +2615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2559,7 +2636,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2568,46 +2645,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2628,18 +2705,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2662,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2671,7 +2748,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2680,46 +2757,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2740,18 +2817,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2774,7 +2851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2783,7 +2860,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2792,46 +2869,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2852,18 +2929,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +2963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2895,7 +2972,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2904,46 +2981,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2964,18 +3041,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2998,7 +3075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -3007,7 +3084,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3016,46 +3093,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200908.xlsx
+++ b/REVER_DailyTracker_20200908.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEFA709-6B29-408C-8185-7458CDE2111B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0080E2-0AF6-41A1-9015-CAFEEEE4304D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10596" yWindow="408" windowWidth="12444" windowHeight="11952" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve"> mobile view in progress and issues are cleared in vastu.                                                               </t>
+  </si>
+  <si>
+    <t>QMVAR-PR summary five days</t>
+  </si>
+  <si>
+    <t>Rahman San had given this task for credit info,had completed</t>
   </si>
 </sst>
 </file>
@@ -1186,15 +1192,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -1227,10 +1233,18 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1297,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
